--- a/Project/Data/Water/Cantons/AI/AI 2009.xlsx
+++ b/Project/Data/Water/Cantons/AI/AI 2009.xlsx
@@ -21,36 +21,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
-  <si>
-    <t>mation</t>
-  </si>
-  <si>
-    <t>pompes)</t>
-  </si>
-  <si>
-    <t>Hiver</t>
-  </si>
-  <si>
-    <t>Eté</t>
-  </si>
-  <si>
-    <t>Année</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>(m3/s)</t>
   </si>
   <si>
-    <t>(MW)</t>
-  </si>
-  <si>
-    <t>(GWh)</t>
-  </si>
-  <si>
     <t>Kubel</t>
   </si>
   <si>
     <t>Wasserauen</t>
+  </si>
+  <si>
+    <t>idx</t>
+  </si>
+  <si>
+    <t>idx2</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Date Start</t>
+  </si>
+  <si>
+    <t>Date End</t>
+  </si>
+  <si>
+    <t>(MW1)</t>
+  </si>
+  <si>
+    <t>(MW2)</t>
+  </si>
+  <si>
+    <t>(GWh) Winter</t>
+  </si>
+  <si>
+    <t>(GWh) Summer</t>
+  </si>
+  <si>
+    <t>(GWh) Year</t>
   </si>
 </sst>
 </file>
@@ -110,12 +119,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -449,120 +459,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:K36"/>
+      <selection activeCell="A2" sqref="A2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="E1" s="2" t="s">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>7</v>
+      <c r="B2" s="3">
+        <v>107500</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1976</v>
+      </c>
+      <c r="F2" s="4">
+        <v>18</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1.48</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1.37</v>
+      </c>
+      <c r="I2" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="J2" s="4">
+        <v>1.66</v>
+      </c>
+      <c r="K2" s="4">
+        <v>3.06</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>107500</v>
+        <v>107400</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D3" s="3">
-        <v>1900</v>
+        <v>1905</v>
       </c>
       <c r="E3" s="3">
-        <v>1976</v>
+        <v>2005</v>
       </c>
       <c r="F3" s="4">
-        <v>18</v>
+        <v>1.3</v>
       </c>
       <c r="G3" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="H3" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I3" s="4">
         <v>1.48</v>
       </c>
-      <c r="H3" s="4">
-        <v>1.37</v>
-      </c>
-      <c r="I3" s="4">
-        <v>1.4</v>
-      </c>
       <c r="J3" s="4">
-        <v>1.66</v>
+        <v>6.22</v>
       </c>
       <c r="K3" s="4">
-        <v>3.06</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3">
-        <v>107400</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1905</v>
-      </c>
-      <c r="E4" s="3">
-        <v>2005</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1.3</v>
-      </c>
-      <c r="G4" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="H4" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="I4" s="4">
-        <v>1.48</v>
-      </c>
-      <c r="J4" s="4">
-        <v>6.22</v>
-      </c>
-      <c r="K4" s="4">
-        <v>7.7</v>
-      </c>
+      <c r="A4" s="1"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1"/>
@@ -656,9 +667,6 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
